--- a/biology/Zoologie/Caviidae/Caviidae.xlsx
+++ b/biology/Zoologie/Caviidae/Caviidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">cavidés, Caviidés
-Les Cavidés[2] ou Caviidés (Caviidae) sont une famille de l'ordre des Rongeurs qui fait partie de l'infra-ordre des Hystricognathi. Elle comprend les cobayes mais aussi les maras (Dolichotis spp.) et, selon les auteurs, les capybaras (Hydrochoerus spp.).
+Les Cavidés ou Caviidés (Caviidae) sont une famille de l'ordre des Rongeurs qui fait partie de l'infra-ordre des Hystricognathi. Elle comprend les cobayes mais aussi les maras (Dolichotis spp.) et, selon les auteurs, les capybaras (Hydrochoerus spp.).
 Cette famille a été décrite pour la première fois en 1817 par le naturaliste russe d'origine saxonne Gotthelf Fischer von Waldheim (1771-1853).
 </t>
         </is>
@@ -513,15 +525,54 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (19 janv. 2013)[3] et ITIS      (25 janv. 2013)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (19 janv. 2013) et ITIS      (25 janv. 2013):
 sous-famille Caviinae Fischer de Waldheim, 1817 - des cobayes
 sous-famille Dolichotinae Pocock, 1922 - les maras
-sous-famille Hydrochoerinae Gray, 1825 - les hydrochères (ou cabiaïs) et les cobayes des rochers
-Liste des sous-familles et genres
-Taxons actuels
-Selon Mammal Species of the World (version 3, 2005)  (19 janv. 2013)[3] :
+sous-famille Hydrochoerinae Gray, 1825 - les hydrochères (ou cabiaïs) et les cobayes des rochers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caviidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caviidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Taxons actuels</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (19 janv. 2013) :
 sous-famille Caviinae
 genre Cavia
 genre Galea
@@ -530,9 +581,47 @@
 genre Dolichotis
 sous-famille Hydrochoerinae
 genre Hydrochoerus
-genre Kerodon
-Taxons éteints et actuels
-Selon Paleobiology Database                   (19 janv. 2013)[4] :
+genre Kerodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caviidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caviidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Taxons éteints et actuels</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (19 janv. 2013) :
 genre Allocavia
 sous-famille Cardiomyinae
 genre Cavia
